--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288301.395682056</v>
+        <v>1280672.909657943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.590648625</v>
+        <v>8854286.535708252</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10597037.18428935</v>
+        <v>10538821.84420311</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.6300723051348</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>134.297674614361</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>138.3371546162927</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>8.715333384834466</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1042434841859</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.9369059106268</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>126.0887386816668</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>60.91731084343978</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>343.0300256929935</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>27.4054202032157</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.1742023667268</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344744</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>109.7065989026432</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.32764374521088</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.52833370591653</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,16 +1373,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1427,10 +1427,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>67.88571179025848</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>40.13771612386392</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>207.7497004594802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>38.87667447859848</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>23.79925355567458</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>59.90320919298874</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>266.3395318347775</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>106.5867442799594</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>15.11174121957123</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>28.87956703897748</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.00186811940955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,16 +2770,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>151.0524841960076</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.15794421524278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17.15794421524348</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>6.38006817584793</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3205,7 +3205,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>80.88401014030492</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0927541397966</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>28.00806043385895</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>52.23490948285998</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F44" t="n">
-        <v>58.31186923471391</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>56.75574343264636</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>142.3844270995957</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
         <v>1036.358670716696</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321493</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D4" t="n">
-        <v>379.6592427198135</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E4" t="n">
-        <v>231.7461491374204</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>231.7461491374204</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>62.7463488757528</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>62.7463488757528</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>62.7463488757528</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.480863147839</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.480863147839</v>
+        <v>2063.986705405919</v>
       </c>
       <c r="D5" t="n">
-        <v>1233.480863147839</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E5" t="n">
-        <v>1233.480863147839</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2188.165398244936</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2188.165398244936</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>2063.986705405919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4647,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250784</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>115.4756190359602</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4726,49 +4726,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>539.096290169754</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250784</v>
+        <v>284.4118019638671</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250784</v>
+        <v>284.4118019638671</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1118.94644896411</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>1118.94644896411</v>
       </c>
       <c r="D8" t="n">
-        <v>891.4467595608955</v>
+        <v>1118.94644896411</v>
       </c>
       <c r="E8" t="n">
-        <v>505.6585069626513</v>
+        <v>1118.94644896411</v>
       </c>
       <c r="F8" t="n">
-        <v>94.67260217304374</v>
+        <v>772.451473516642</v>
       </c>
       <c r="G8" t="n">
-        <v>81.62522444987526</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,28 +4802,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.514302137349</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>468.4264940665504</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>838.9376088552597</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2488.892320950822</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2235.320194471116</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2235.320194471116</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1882.551539201002</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1509.085780939922</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1118.94644896411</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990733</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>702.6555516296426</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>1010.074949674014</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1388.175755327816</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1790.69240914896</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2136.696714185272</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2410.22100977735</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2533.012570513408</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>605.0955332381617</v>
+        <v>625.2575512460248</v>
       </c>
       <c r="C10" t="n">
-        <v>436.1593503102548</v>
+        <v>456.3213683181179</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3446039439485</v>
+        <v>306.2047289057822</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3446039439485</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534688</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1571.800253462642</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1571.800253462642</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>1571.800253462642</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>1317.115765256755</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>1027.698595219795</v>
       </c>
       <c r="X10" t="n">
-        <v>825.8881123816918</v>
+        <v>1027.698595219795</v>
       </c>
       <c r="Y10" t="n">
-        <v>605.0955332381617</v>
+        <v>806.9060160762646</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939214</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324635</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218342</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>985.2668805437596</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>816.3306976158527</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>666.214058203517</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>518.3009646211239</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5194,7 +5194,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1387.707924517529</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1166.915345373999</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1208.812782134349</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C14" t="n">
-        <v>839.8502651939375</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="D14" t="n">
-        <v>481.5845665871869</v>
+        <v>1200.139242371469</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>814.3509897732242</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>403.3650849836167</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5306,22 +5306,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392464</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y14" t="n">
-        <v>1418.660964416652</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5431,7 +5431,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,22 +5458,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X16" t="n">
         <v>1494.054724415577</v>
@@ -5510,19 +5510,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5543,19 +5543,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y17" t="n">
         <v>2731.767278738087</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>463.6594280995014</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C19" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>294.7232451715945</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>127.0204085463135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>127.0204085463135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X19" t="n">
-        <v>866.1004720732712</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y19" t="n">
-        <v>645.3078929297411</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,7 +5735,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>909.2731541783409</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C22" t="n">
-        <v>909.2731541783409</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>110.8254195186684</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5941,19 +5941,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W22" t="n">
-        <v>909.2731541783409</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X22" t="n">
-        <v>909.2731541783409</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.2731541783409</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3253.908310316599</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C25" t="n">
-        <v>3084.972127388692</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
-        <v>3084.972127388692</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>3084.972127388692</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>3084.972127388692</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246546</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816072</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941716</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>3820.811867735829</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W25" t="n">
-        <v>3531.394697698868</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X25" t="n">
-        <v>3303.405146800851</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y25" t="n">
-        <v>3253.908310316599</v>
+        <v>1149.833878295369</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3014.594967945065</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C28" t="n">
-        <v>3014.594967945065</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D28" t="n">
-        <v>3014.594967945065</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>3014.594967945065</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>3014.594967945065</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945065</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>3730.981410493357</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="W28" t="n">
-        <v>3441.564240456396</v>
+        <v>1101.209832762045</v>
       </c>
       <c r="X28" t="n">
-        <v>3213.574689558379</v>
+        <v>873.220281864028</v>
       </c>
       <c r="Y28" t="n">
-        <v>3196.243432775305</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>210.2179684131233</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C31" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.866433243363</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968865</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027647</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862918</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>876.4469737784534</v>
+        <v>3942.370854773035</v>
       </c>
       <c r="C34" t="n">
-        <v>707.5107908505465</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D34" t="n">
-        <v>557.3941514382108</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558177</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="V34" t="n">
-        <v>1393.853694713431</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="W34" t="n">
-        <v>1104.436524676471</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="X34" t="n">
-        <v>876.4469737784534</v>
+        <v>4344.811898746804</v>
       </c>
       <c r="Y34" t="n">
-        <v>876.4469737784534</v>
+        <v>4124.019319603274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,7 +6920,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1518.899775139037</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2497.450077968865</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862918</v>
@@ -6971,16 +6971,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104704</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V37" t="n">
-        <v>1956.343466104704</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W37" t="n">
-        <v>1751.093193329805</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X37" t="n">
-        <v>1523.103642431788</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y37" t="n">
-        <v>1302.311063288258</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143013</v>
@@ -7160,40 +7160,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786371</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1670.680157531992</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7205,19 +7205,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2917.269290763411</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="C40" t="n">
-        <v>2917.269290763411</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="D40" t="n">
-        <v>2917.269290763411</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="E40" t="n">
-        <v>2917.269290763411</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="F40" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.7687655736</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699243</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493357</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456396</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X40" t="n">
-        <v>3213.574689558379</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y40" t="n">
-        <v>2992.782110414849</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N41" t="n">
-        <v>3316.966490094645</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107236</v>
@@ -7454,7 +7454,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,22 +7518,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>391.866433243363</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>391.866433243363</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>391.866433243363</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>391.866433243363</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>391.866433243363</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7591,28 +7591,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y43" t="n">
-        <v>391.866433243363</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1295.236214140705</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C44" t="n">
-        <v>926.2736972002938</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D44" t="n">
-        <v>926.2736972002938</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E44" t="n">
-        <v>540.4854446020495</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7664,10 +7664,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,22 +7676,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2489.924953962485</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C46" t="n">
-        <v>2320.988771034578</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="D46" t="n">
-        <v>2170.872131622242</v>
+        <v>271.7542437849264</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.959038039849</v>
+        <v>123.8411502025333</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541939</v>
+        <v>123.8411502025333</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.605821609171</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>3325.605821609171</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>3325.605821609171</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>3036.18865157221</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>2892.365997936255</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y46" t="n">
-        <v>2671.573418792725</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,16 +8225,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>359.9458024792946</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>97.03931925844932</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>15.31151794479121</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>161.8544041422894</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>285.0508825989983</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>20.70318561718966</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>272.8828616575871</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>258.6211785616921</v>
+        <v>173.2204606877384</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>259.8665466798764</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>105.2833318990673</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.9841412040004</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>372.045051174855</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23546,13 +23546,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23713,10 +23713,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>362.438685100379</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="18">
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>36.44921121684935</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>20.18346650181348</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02872873825298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>129.6432736947496</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>150.9524131429598</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.5827852326852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>101.0851591278204</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.426709136852</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>127.5970706990773</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.388957155594</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.50340795433958</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>171.2536331835231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>30.5227188784158</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>117.4129875890723</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.7908987761682</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25868,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F44" t="n">
-        <v>348.5641765069975</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>109.2700648263819</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>83.32522828944147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1015061.31162634</v>
+        <v>992670.4058138183</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>992670.4058138183</v>
+        <v>952991.2360215699</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789172.8793532164</v>
+        <v>789172.8793532166</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789172.8793532164</v>
+        <v>789172.8793532165</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
+        <v>409196.5187651048</v>
+      </c>
+      <c r="F2" t="n">
         <v>409196.5187651046</v>
       </c>
-      <c r="F2" t="n">
-        <v>409196.5187651047</v>
-      </c>
       <c r="G2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="H2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="I2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="I2" t="n">
-        <v>476498.1442643798</v>
-      </c>
       <c r="J2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="K2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="M2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="O2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513056</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734512</v>
+        <v>149914.8602001175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.7440129484</v>
+        <v>97970.74401294834</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254666</v>
+        <v>39153.48277254669</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404877</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388028.4495998718</v>
+        <v>-390124.3108224173</v>
       </c>
       <c r="C6" t="n">
-        <v>201939.4296146726</v>
+        <v>32349.65304980893</v>
       </c>
       <c r="D6" t="n">
-        <v>45473.3872584292</v>
+        <v>-39816.76603324665</v>
       </c>
       <c r="E6" t="n">
-        <v>-116106.5284778762</v>
+        <v>179474.5226565886</v>
       </c>
       <c r="F6" t="n">
-        <v>329533.701095575</v>
+        <v>329389.382856706</v>
       </c>
       <c r="G6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567063</v>
       </c>
       <c r="H6" t="n">
-        <v>254403.3398955212</v>
+        <v>253582.042644822</v>
       </c>
       <c r="I6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="J6" t="n">
-        <v>175950.8647158766</v>
+        <v>175129.5674651774</v>
       </c>
       <c r="K6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577704</v>
       </c>
       <c r="L6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="M6" t="n">
-        <v>313220.6011359229</v>
+        <v>312399.3038852237</v>
       </c>
       <c r="N6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577704</v>
       </c>
       <c r="O6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577703</v>
       </c>
       <c r="P6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567061</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980342</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599691</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.2096553952641</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026372</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>157.1141826477373</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026372</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.1037693583457</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>251.9402640416926</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>41.49482556564456</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.48462580370254</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>128.7718022575255</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.3010327454268</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>41.15808241696101</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>87.69816217477258</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>63.84602004871789</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>287.6354638719998</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031658</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.90887411556915</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>178.2698376811437</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200893</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206097</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411435</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717137</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047166</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728051</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333017</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959968</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861146</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246315</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897658</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796763</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342643</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827407</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073721</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921068</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195861</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279933</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.09458036510144609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34378,13 +34378,13 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.994981974642</v>
       </c>
       <c r="Q44" t="n">
         <v>473.099994678169</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>556.2429872186707</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>258.1628674087126</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939234</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>374.2536513017265</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>460.3349235081257</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511184</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780322</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215473</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198253</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>460.6050612745972</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892644</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164778</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>276.2871672647253</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.25672331738873</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.23273644898478</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.03458057320877</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36595,19 +36595,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>700.7755199725161</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>740.6409969913304</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>357.8944721725902</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>780.9358625458062</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>766.6741794499112</v>
+        <v>681.2734615759575</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38026,13 +38026,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372114.610842062</v>
+        <v>1367808.495840223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10357448.82631056</v>
+        <v>10367347.96096033</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418320.0334880268</v>
+        <v>416855.1052283174</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11005485.29021803</v>
+        <v>11005380.33195417</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>94.81090055791516</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.9939509566152</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>68.49439899867248</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>362.0937679051531</v>
+        <v>42.96178884837965</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053103</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>56.58072854101235</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>116.3748161151076</v>
+        <v>167.0119185991428</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>146.1341776126973</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>353.1459972433406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>86.72290329780397</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8.616048582069491</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>123.7971820797027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>146.0663306291632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>66.25628701154712</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428618</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282077</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375839</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788183532</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695507</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128541</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428618</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.195303554219</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.195303554219</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D2" t="n">
-        <v>1106.929604947469</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E2" t="n">
-        <v>721.1413523492245</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>878.0319110787823</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.195303554219</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,19 +4421,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.4036268380754</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C4" t="n">
-        <v>211.4036268380754</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D4" t="n">
-        <v>211.4036268380754</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>211.4036268380754</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380754</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380754</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380754</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.10866026757</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C5" t="n">
-        <v>984.1461433271581</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="D5" t="n">
-        <v>984.1461433271581</v>
+        <v>643.5384574842171</v>
       </c>
       <c r="E5" t="n">
-        <v>984.1461433271581</v>
+        <v>257.7502048859729</v>
       </c>
       <c r="F5" t="n">
-        <v>573.1602385375506</v>
+        <v>250.8047041367694</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574933</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>670.9767331549068</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.721006799168</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.721006799168</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4840,16 +4840,16 @@
         <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.32084686329</v>
+        <v>2372.235145839149</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.32084686329</v>
+        <v>1998.769387578069</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.32084686329</v>
+        <v>1608.630055602257</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>391.486009752888</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>222.5498268249811</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>222.5498268249811</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>539.096290169754</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>391.486009752888</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>391.486009752888</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>391.486009752888</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>391.486009752888</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.7144217092</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091278</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>93.81666304797187</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3125385470848</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6291563257736</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>769.1761270446466</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2417173833953</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0042623779398</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.4697044048247</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.6894541647543</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
         <v>93.81666304797187</v>
@@ -5120,52 +5120,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>241.4646447998178</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>732.196977643569</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1324.215331895697</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1946.311295295033</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2493.187770295227</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2493.187770295227</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.168964849488</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1099.390323855922</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>930.454140928015</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>780.3375015156793</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>632.4244079332861</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>172.7987859375258</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4275129080894</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>820.1893309912236</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.418923035683</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.11478882739</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.137245842419</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.667680678624</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.380814232059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.52146919056</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2361.52146919056</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2361.52146919056</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.922576970556</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>2019.23808876467</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.820918727709</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.831367829692</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.038788686162</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>527.7722521572603</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>527.7722521572603</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1607.889809492038</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1318.472639455077</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348537</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270488</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038352</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852267</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7004,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821487</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038352</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694718</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852267</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7241,37 +7241,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167376</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793929</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821487</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>695.5020655703109</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038352</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603206</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654423</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654423</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891996</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446604</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876729</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>411.963121559766</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>411.963121559766</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>411.963121559766</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038352</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.32989935946</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614428</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179126</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192635</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075832</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014785</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273922</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803944</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516158</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403252</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266878</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821487</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270488</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038352</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797759</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U46" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>418.9459514760939</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.159605744760484e-11</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.165251280321239e-11</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-1.213606992678251e-11</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-9.799497725262754e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-1.159605744760484e-11</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>176.3785887617862</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>199.4625482506165</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.62386594322854</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193765</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>125.5054897610364</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>110.0033420516603</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347477</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012147</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392193765</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933216.205136121</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636056</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
-        <v>483936.3770316737</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26349,13 +26349,13 @@
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>763071.323141695</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.788424015103374e-09</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26423,43 +26423,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>6468.874198228084</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.53656668256</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682551</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682551</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682562</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.53656668256</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>100905.9587784758</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26499,19 +26499,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390124.3108224175</v>
+        <v>-390124.3108224176</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.5683921271</v>
+        <v>199843.5683921269</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.76229833244</v>
+        <v>44039.76229833247</v>
       </c>
       <c r="E6" t="n">
-        <v>-386509.7790867251</v>
+        <v>-393912.1772117497</v>
       </c>
       <c r="F6" t="n">
-        <v>369635.2558084629</v>
+        <v>377140.5141690567</v>
       </c>
       <c r="G6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690567</v>
       </c>
       <c r="H6" t="n">
-        <v>377487.8934234136</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="I6" t="n">
-        <v>377487.8934234136</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="J6" t="n">
-        <v>201064.6742308207</v>
+        <v>200717.2949764637</v>
       </c>
       <c r="K6" t="n">
-        <v>377487.8934234139</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="L6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690551</v>
       </c>
       <c r="M6" t="n">
-        <v>253279.3827153553</v>
+        <v>252932.0034609984</v>
       </c>
       <c r="N6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="O6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690569</v>
       </c>
       <c r="P6" t="n">
-        <v>377487.8934234139</v>
+        <v>377140.5141690568</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26767,19 +26767,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783205</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>312.0651451837963</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>73.79021906417978</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>80.12107401953988</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.42376369151714</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>51.69040211564192</v>
+        <v>370.8223811724154</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800598</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>169.1289268480248</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>232.8661526023054</v>
+        <v>182.2290501182702</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28064,13 +28064,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>106.0034657111307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.1867228707733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643557958</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192503</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473085</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192503</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592558</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485297</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348443</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713535</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663291</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817588</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162576</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460044</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236522</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669233</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078753</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521105</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007751</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422594</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593786</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862134</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071799</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437255</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742448</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869288</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355183</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392052</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106795</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532774</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>600.2563922383209</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.20494878475183</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683711</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113514</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010458</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902289</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359169</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010458</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902289</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674343</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359169</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010458</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902851</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243177</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>300.6896499848968</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625082</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010458</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317654</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396428</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367782</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462703</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243061</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390241</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.7852396007751</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496679004</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>199.0097390795044</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238466</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992811</v>
       </c>
       <c r="P45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191321</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010458</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1367808.495840223</v>
+        <v>1369569.026143009</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10367347.96096033</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283174</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>339.9939509566152</v>
+        <v>412.5419834591647</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>68.49439899867248</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>42.96178884837965</v>
+        <v>29.22482524495304</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>56.58072854101235</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>26.26583888007722</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>129.1257392394543</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>167.0119185991428</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>29.98312440873159</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.453391420151112</v>
+        <v>54.63637568893693</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>8.616048582069491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>149.1095818503222</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428618</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282077</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>176.1811323375839</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788183532</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428618</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="E2" t="n">
-        <v>1289.01781586839</v>
+        <v>958.2582527396519</v>
       </c>
       <c r="F2" t="n">
-        <v>878.0319110787823</v>
+        <v>951.3127519904484</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,19 +4421,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>270.0191909330955</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.766673031379</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1001.804156090968</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>643.5384574842171</v>
+        <v>975.109608078832</v>
       </c>
       <c r="E5" t="n">
-        <v>257.7502048859729</v>
+        <v>975.109608078832</v>
       </c>
       <c r="F5" t="n">
-        <v>250.8047041367694</v>
+        <v>564.1237032892245</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>670.9767331549068</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113767</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.030215538135</v>
+        <v>1777.328963278159</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1777.328963278159</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1419.063264671408</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>1033.275012073164</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>622.2891072835566</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1342.271455617851</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1969.579123677698</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2516.740328444775</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4843,13 +4843,13 @@
         <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2372.235145839149</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="X8" t="n">
-        <v>1998.769387578069</v>
+        <v>2167.468295253971</v>
       </c>
       <c r="Y8" t="n">
-        <v>1608.630055602257</v>
+        <v>1777.328963278159</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>685.6734330002731</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>984.919235607273</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>454.6048385560546</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,16 +5834,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6767,31 +6767,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273922</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803944</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516158</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167376</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793929</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121689</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121689</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121689</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270488</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7004,31 +7004,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273922</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803944</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516158</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167376</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793929</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821487</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235169</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.50678425811</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,64 +7162,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273922</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803944</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516158</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167376</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793929</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821487</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603206</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014773</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273922</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803944</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>542.9134462654423</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654423</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891996</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446604</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876729</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.963121559766</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>411.963121559766</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>411.963121559766</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614428</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179126</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7675,25 +7675,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273922</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803944</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516158</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403252</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266878</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821487</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270488</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>35.04072454780373</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>418.9459514760939</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-1.159605744760484e-11</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.165251280321239e-11</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.213606992678251e-11</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>-9.799497725262754e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.159605744760484e-11</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.3785887617862</v>
+        <v>125.1956044930004</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>69.47507150177262</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23940,13 +23940,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392193765</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610364</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>110.0033420516603</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347477</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012147</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392193765</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.1413636056</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.959814004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140035</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.788424015103374e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26438,7 +26438,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26447,19 +26447,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.53656668256</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682551</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682551</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682562</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.53656668256</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26499,19 +26499,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390124.3108224176</v>
+        <v>-390124.3108224175</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.5683921269</v>
+        <v>199843.5683921271</v>
       </c>
       <c r="D6" t="n">
         <v>44039.76229833247</v>
       </c>
       <c r="E6" t="n">
-        <v>-393912.1772117497</v>
+        <v>-393599.5358828288</v>
       </c>
       <c r="F6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.1554979783</v>
       </c>
       <c r="G6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.1554979785</v>
       </c>
       <c r="H6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.1554979782</v>
       </c>
       <c r="I6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.155497978</v>
       </c>
       <c r="J6" t="n">
-        <v>200717.2949764637</v>
+        <v>201029.936305385</v>
       </c>
       <c r="K6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.155497978</v>
       </c>
       <c r="L6" t="n">
-        <v>377140.5141690551</v>
+        <v>377453.1554979782</v>
       </c>
       <c r="M6" t="n">
-        <v>252932.0034609984</v>
+        <v>253244.6447899193</v>
       </c>
       <c r="N6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.1554979782</v>
       </c>
       <c r="O6" t="n">
-        <v>377140.5141690569</v>
+        <v>377453.1554979779</v>
       </c>
       <c r="P6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.1554979779</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26767,19 +26767,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036094</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450935</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>73.79021906417978</v>
+        <v>1.242186561630319</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>80.12107401953988</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>370.8223811724154</v>
+        <v>384.559344775842</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>169.1289268480248</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>192.3188144720176</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>283.7911647064824</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>182.2290501182702</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>193.3897803120271</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990626</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925975</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,7 +32554,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007751</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643557958</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007751</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192503</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437255</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007751</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192503</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437255</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007751</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>438.5310889592558</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437255</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485297</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007751</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422594</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5641188593786</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437255</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>146.8935783352043</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>600.2563922383209</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35269,10 +35269,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770443</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782673</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683711</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.7852396007751</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113514</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902289</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.7852396007751</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359169</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992811</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902289</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.7852396007751</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359169</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992811</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902851</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.7852396007751</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>300.6896499848968</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992811</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625082</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243061</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.7852396007751</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496679004</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L45" t="n">
-        <v>199.0097390795044</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992811</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
